--- a/biology/Biologie cellulaire et moléculaire/Hotte_à_flux_laminaire/Hotte_à_flux_laminaire.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Hotte_à_flux_laminaire/Hotte_à_flux_laminaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hotte_%C3%A0_flux_laminaire</t>
+          <t>Hotte_à_flux_laminaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une hotte à flux laminaire est une hotte soufflante conçue pour éviter la contamination par des particules de wafers, contamination microbienne d'échantillons biologiques ou tout autre objet sensible aux particules. 
 De l'air passe à travers un filtre HEPA, puis est diffusé en un flux laminaire vers l'utilisateur. Le meuble est habituellement fait d'acier inoxydable sans jointures ou espaces permettant le passage de spores.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hotte_%C3%A0_flux_laminaire</t>
+          <t>Hotte_à_flux_laminaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Différence avec les autres hottes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La hotte d'extraction chimique est une hotte sous laquelle on effectue des réactions chimiques émettant des vapeurs toxiques. L'usage et le principe de cette hotte sont totalement différents de ceux de la hotte à flux laminaire. Son principe est d'aspirer l'air de façon à évacuer les émanations toxiques. Son rôle est avant tout de protéger l'opérateur. Elle ne garantit en rien la stérilité de la manipulation.
 Au contraire, le principe de la hotte à flux laminaire est de souffler un air propre vers l'échantillon, protégeant ce dernier des contaminations externes.
